--- a/uploads/attachments/2020/MarFinancials1.xlsx
+++ b/uploads/attachments/2020/MarFinancials1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="241">
   <si>
     <t>BHUTAN TELECOM LIMITED</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>Earning per employee</t>
+  </si>
+  <si>
+    <t>As at 31st Feburay, 2019</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1954,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,8 +2983,8 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2995,11 +2998,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
@@ -3007,9 +3005,6 @@
       <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -3032,10 +3027,10 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>1000000</v>
       </c>
       <c r="F10">
-        <v>7157366.1900000004</v>
+        <v>12272156.23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,10 +3041,10 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>456</v>
+        <v>50000</v>
       </c>
       <c r="F11">
-        <v>658026.05000000005</v>
+        <v>1214074.96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,7 +3055,7 @@
         <v>7065902.1299999999</v>
       </c>
       <c r="F12">
-        <v>7815392.2400000002</v>
+        <v>13486231.189999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,7 +3069,7 @@
         <v>118532545.55</v>
       </c>
       <c r="F13">
-        <v>91485095.890000001</v>
+        <v>218819946.30000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,7 +3083,7 @@
         <v>13435920.039999999</v>
       </c>
       <c r="F14">
-        <v>13890054.27</v>
+        <v>25217734.120000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,7 +3097,7 @@
         <v>52299978.549999997</v>
       </c>
       <c r="F15">
-        <v>67929597.290000007</v>
+        <v>104263790.09999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3116,7 +3111,7 @@
         <v>276864.45</v>
       </c>
       <c r="F16">
-        <v>326550.8</v>
+        <v>710320.66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,7 +3125,7 @@
         <v>92123504.829999998</v>
       </c>
       <c r="F17">
-        <v>65565484.829999998</v>
+        <v>177269378.81999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8089711.3600000003</v>
+        <v>7003360.2699999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,7 +3153,7 @@
         <v>164598</v>
       </c>
       <c r="F19">
-        <v>181139</v>
+        <v>164598</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1129688.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>510506.64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3200,7 +3195,7 @@
         <v>1505150</v>
       </c>
       <c r="F22">
-        <v>1069150</v>
+        <v>2762650</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,7 +3209,7 @@
         <v>62544</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>62544</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3220,7 @@
         <v>278401105.41999996</v>
       </c>
       <c r="F24">
-        <v>249666472.18000001</v>
+        <v>536784828.90999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,7 +3234,7 @@
         <v>1557492.29</v>
       </c>
       <c r="F25">
-        <v>4604849.24</v>
+        <v>3004865.73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,7 +3248,7 @@
         <v>9347013.2400000002</v>
       </c>
       <c r="F26">
-        <v>5734537.6500000004</v>
+        <v>11688697.689999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,7 +3262,7 @@
         <v>21592605.98</v>
       </c>
       <c r="F27">
-        <v>32739156.140000001</v>
+        <v>43902247.109999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,7 +3276,7 @@
         <v>139196.65</v>
       </c>
       <c r="F28">
-        <v>309850</v>
+        <v>390406.65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>131272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>289324.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>61742.8</v>
+        <v>60227.839999999997</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>28044.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,7 +3360,7 @@
         <v>506262.6</v>
       </c>
       <c r="F34">
-        <v>610515.6</v>
+        <v>897183.8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3379,7 +3374,7 @@
         <v>95</v>
       </c>
       <c r="F35">
-        <v>2565</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,7 +3385,7 @@
         <v>33142665.760000002</v>
       </c>
       <c r="F36">
-        <v>44511857.020000003</v>
+        <v>59943723.82</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,7 +3399,7 @@
         <v>564053</v>
       </c>
       <c r="F37">
-        <v>290034.23</v>
+        <v>1091397.67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3432,7 +3427,7 @@
         <v>759215.5</v>
       </c>
       <c r="F39">
-        <v>3903857.03</v>
+        <v>1534180.83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3446,7 +3441,7 @@
         <v>200000</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +3455,7 @@
         <v>49731</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>133581.51999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3466,7 @@
         <v>1572999.5</v>
       </c>
       <c r="F42">
-        <v>4193891.26</v>
+        <v>3159160.02</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,7 +3474,7 @@
         <v>320182672.80999994</v>
       </c>
       <c r="F43">
-        <v>306187612.70000005</v>
+        <v>613373943.94000006</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,7 +3482,7 @@
         <v>320182672.80999994</v>
       </c>
       <c r="F44">
-        <v>306187612.70000005</v>
+        <v>613373943.94000006</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,7 +3501,7 @@
         <v>131572</v>
       </c>
       <c r="F46">
-        <v>115931</v>
+        <v>187367</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,7 +3515,7 @@
         <v>5427.05</v>
       </c>
       <c r="F47">
-        <v>91342.42</v>
+        <v>10454.6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,7 +3529,7 @@
         <v>103200</v>
       </c>
       <c r="F48">
-        <v>56100</v>
+        <v>256550</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,7 +3543,7 @@
         <v>74085</v>
       </c>
       <c r="F49">
-        <v>78955</v>
+        <v>176110</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,7 +3557,7 @@
         <v>155468.78</v>
       </c>
       <c r="F50">
-        <v>103470.02</v>
+        <v>163106.41</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,7 +3571,7 @@
         <v>190838.2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>397095.6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,7 +3582,7 @@
         <v>660591.03</v>
       </c>
       <c r="F52">
-        <v>445798.44</v>
+        <v>1190683.6099999999</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,7 +3596,7 @@
         <v>7390</v>
       </c>
       <c r="F53">
-        <v>4003</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,7 +3610,7 @@
         <v>12550</v>
       </c>
       <c r="F54">
-        <v>412008</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3626,7 +3621,7 @@
         <v>19940</v>
       </c>
       <c r="F55">
-        <v>416011</v>
+        <v>20891</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,7 +3629,12 @@
         <v>680531.03</v>
       </c>
       <c r="F56">
-        <v>861809.44</v>
+        <v>1211574.6099999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>614585518.55000007</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,14 +3644,14 @@
       <c r="E58">
         <v>320863203.83999991</v>
       </c>
-      <c r="F58">
-        <v>307049422.14000005</v>
-      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>51</v>
       </c>
+      <c r="F60">
+        <v>569402005.55000007</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
@@ -3661,7 +3661,7 @@
         <v>275679690.83999991</v>
       </c>
       <c r="F61">
-        <v>279714381.14000005</v>
+        <v>45183513</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,8 +3671,10 @@
       <c r="E62">
         <v>45183513</v>
       </c>
-      <c r="F62">
-        <v>27335041</v>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,8 +3684,10 @@
       <c r="E64" t="s">
         <v>71</v>
       </c>
-      <c r="F64" t="s">
-        <v>72</v>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>522157.74</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,8 +3697,23 @@
       <c r="E66" t="s">
         <v>71</v>
       </c>
-      <c r="F66" t="s">
-        <v>72</v>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,6 +3723,9 @@
       <c r="D70" t="s">
         <v>55</v>
       </c>
+      <c r="F70">
+        <v>114775.03999999999</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -3716,7 +3738,7 @@
         <v>57702.9</v>
       </c>
       <c r="F71">
-        <v>96548.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3729,9 +3751,6 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -3743,8 +3762,15 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
-        <v>-26323.439999999999</v>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>742368.89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,7 +3798,17 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>568040.92000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>43400</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3786,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>36676.629999999997</v>
+        <v>59504</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,7 +3847,7 @@
         <v>62</v>
       </c>
       <c r="F82">
-        <v>-200319.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,7 +3858,7 @@
         <v>63</v>
       </c>
       <c r="F83">
-        <v>184975.06</v>
+        <v>71424</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-15343.98000000001</v>
+        <v>1379301.67</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,9 +3879,6 @@
       <c r="E85">
         <v>302593.8</v>
       </c>
-      <c r="F85">
-        <v>192113.90999999997</v>
-      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -3857,8 +3890,8 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86">
-        <v>0</v>
+      <c r="F86" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,9 +3904,6 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -3886,7 +3916,7 @@
         <v>208089.8</v>
       </c>
       <c r="F88">
-        <v>258458.9</v>
+        <v>313984.86</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>132712.53</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,6 +3954,9 @@
       <c r="E91">
         <v>0</v>
       </c>
+      <c r="F91">
+        <v>642991.18000000005</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -3936,7 +3969,7 @@
         <v>35000</v>
       </c>
       <c r="F92">
-        <v>-66344.990000000005</v>
+        <v>786479.91</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,13 +3977,16 @@
         <v>360296.7</v>
       </c>
       <c r="F93">
-        <v>283671.41999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>50</v>
       </c>
+      <c r="F94">
+        <v>17178603.48</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
@@ -3959,8 +3995,13 @@
       <c r="E95" t="s">
         <v>71</v>
       </c>
-      <c r="F95" t="s">
-        <v>72</v>
+      <c r="F95">
+        <v>13231253.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>32286025.700000003</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,8 +4011,8 @@
       <c r="E97" t="s">
         <v>71</v>
       </c>
-      <c r="F97" t="s">
-        <v>72</v>
+      <c r="F97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,7 +4026,7 @@
         <v>164656.92000000001</v>
       </c>
       <c r="F98">
-        <v>55390.62</v>
+        <v>21655</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,7 +4054,7 @@
         <v>78239.710000000006</v>
       </c>
       <c r="F100">
-        <v>643064.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,7 +4068,7 @@
         <v>256976.39</v>
       </c>
       <c r="F101">
-        <v>600842.19999999995</v>
+        <v>439093.02</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,7 +4082,7 @@
         <v>427790.47</v>
       </c>
       <c r="F102">
-        <v>648278.01</v>
+        <v>4980317.6500000004</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>223979.37</v>
+        <v>5441065.6699999999</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,7 +4110,7 @@
         <v>7308576.7300000004</v>
       </c>
       <c r="F104">
-        <v>11587043.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4083,7 +4124,7 @@
         <v>6828718.1600000001</v>
       </c>
       <c r="F105">
-        <v>6672588.1200000001</v>
+        <v>23465</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4093,6 +4134,9 @@
       <c r="D106" t="s">
         <v>85</v>
       </c>
+      <c r="F106">
+        <v>8505863.8200000003</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
@@ -4102,7 +4146,7 @@
         <v>15064958.380000001</v>
       </c>
       <c r="F107">
-        <v>20431186.82</v>
+        <v>7033.2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,7 +4174,7 @@
         <v>10125</v>
       </c>
       <c r="F109">
-        <v>17318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>664709.17000000004</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4158,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1945</v>
+        <v>5337302.91</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,7 +4216,7 @@
         <v>111788.82</v>
       </c>
       <c r="F112">
-        <v>300217</v>
+        <v>14538374.1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,7 +4230,7 @@
         <v>2389421.8199999998</v>
       </c>
       <c r="F113">
-        <v>2833335.31</v>
+        <v>129839.36</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,7 +4241,7 @@
         <v>2511335.6399999997</v>
       </c>
       <c r="F114">
-        <v>3152815.31</v>
+        <v>409146</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>877995.22</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,7 +4269,7 @@
         <v>21435</v>
       </c>
       <c r="F116">
-        <v>22655</v>
+        <v>1416980.58</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,7 +4283,7 @@
         <v>3704521</v>
       </c>
       <c r="F117">
-        <v>2741667</v>
+        <v>53682446.050000004</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,9 +4296,6 @@
       <c r="E118">
         <v>38607.199999999997</v>
       </c>
-      <c r="F118">
-        <v>5500</v>
-      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -4266,8 +4307,8 @@
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119">
-        <v>0</v>
+      <c r="F119" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,9 +4321,6 @@
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -4295,7 +4333,7 @@
         <v>636197.89</v>
       </c>
       <c r="F121">
-        <v>26460</v>
+        <v>6157928.21</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,7 +4347,7 @@
         <v>4473866.67</v>
       </c>
       <c r="F122">
-        <v>5724339.2800000003</v>
+        <v>2037979.41</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,7 +4358,7 @@
         <v>8874627.7599999998</v>
       </c>
       <c r="F123">
-        <v>8520621.2800000012</v>
+        <v>4119948.8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4334,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>329114.2</v>
+        <v>6157928.21</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,8 +4385,8 @@
       <c r="E125">
         <v>4500</v>
       </c>
-      <c r="F125">
-        <v>651070</v>
+      <c r="F125" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,9 +4399,6 @@
       <c r="E126">
         <v>705338.8</v>
       </c>
-      <c r="F126">
-        <v>719405.89</v>
-      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
@@ -4373,7 +4408,7 @@
         <v>709838.8</v>
       </c>
       <c r="F127">
-        <v>1699590.0899999999</v>
+        <v>25023242.98</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,7 +4416,12 @@
         <v>27160760.579999998</v>
       </c>
       <c r="F128">
-        <v>33804213.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>6735936.0300000003</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,8 +4431,8 @@
       <c r="E130" t="s">
         <v>71</v>
       </c>
-      <c r="F130" t="s">
-        <v>72</v>
+      <c r="F130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,8 +4442,8 @@
       <c r="E131" t="s">
         <v>71</v>
       </c>
-      <c r="F131" t="s">
-        <v>72</v>
+      <c r="F131">
+        <v>4314824</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4413,6 +4453,9 @@
       <c r="D132" t="s">
         <v>108</v>
       </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
@@ -4422,7 +4465,7 @@
         <v>3516156.6500000004</v>
       </c>
       <c r="F133">
-        <v>2043427</v>
+        <v>36074003.010000005</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,7 +4479,7 @@
         <v>1499457.79</v>
       </c>
       <c r="F134">
-        <v>69857.7</v>
+        <v>2666796</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,7 +4493,7 @@
         <v>2016698.86</v>
       </c>
       <c r="F135">
-        <v>1973569.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4461,13 +4504,16 @@
         <v>3516156.6500000004</v>
       </c>
       <c r="F136">
-        <v>2043427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>50</v>
       </c>
+      <c r="F137">
+        <v>38590</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
@@ -4476,8 +4522,8 @@
       <c r="E138" t="s">
         <v>71</v>
       </c>
-      <c r="F138" t="s">
-        <v>72</v>
+      <c r="F138">
+        <v>57190</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,6 +4533,9 @@
       <c r="D139" t="s">
         <v>113</v>
       </c>
+      <c r="F139">
+        <v>125939.8</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
@@ -4496,7 +4545,7 @@
         <v>18699319.130000003</v>
       </c>
       <c r="F140">
-        <v>16168591.370000001</v>
+        <v>221719.8</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,7 +4559,7 @@
         <v>1331327</v>
       </c>
       <c r="F141">
-        <v>1339770</v>
+        <v>234160</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>225051</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,7 +4601,7 @@
         <v>38590</v>
       </c>
       <c r="F144">
-        <v>106337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,7 +4615,7 @@
         <v>57190</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>934077.74</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1408288.74</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4591,7 +4640,7 @@
         <v>95780</v>
       </c>
       <c r="F147">
-        <v>106337</v>
+        <v>40370807.550000004</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4604,9 +4653,6 @@
       <c r="E148">
         <v>168660</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -4618,9 +4664,6 @@
       <c r="E149">
         <v>0</v>
       </c>
-      <c r="F149">
-        <v>108408</v>
-      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -4632,8 +4675,8 @@
       <c r="E150">
         <v>126931</v>
       </c>
-      <c r="F150">
-        <v>208528</v>
+      <c r="F150" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,9 +4689,6 @@
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="F151">
-        <v>1080</v>
-      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -4661,7 +4701,7 @@
         <v>499293.36</v>
       </c>
       <c r="F152">
-        <v>711159.98</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,7 +4712,7 @@
         <v>794884.36</v>
       </c>
       <c r="F153">
-        <v>1029175.98</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4680,7 +4720,7 @@
         <v>20921310.490000002</v>
       </c>
       <c r="F154">
-        <v>18643874.350000001</v>
+        <v>600893</v>
       </c>
       <c r="G154">
         <v>328428074.67999995</v>
@@ -4690,6 +4730,19 @@
       <c r="D155" t="s">
         <v>128</v>
       </c>
+      <c r="F155">
+        <v>28724353.609999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
@@ -4698,8 +4751,8 @@
       <c r="E158" t="s">
         <v>71</v>
       </c>
-      <c r="F158" t="s">
-        <v>72</v>
+      <c r="F158">
+        <v>29351741.609999999</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4709,9 +4762,6 @@
       <c r="E159" t="s">
         <v>71</v>
       </c>
-      <c r="F159" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
@@ -4721,7 +4771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5105101000</v>
       </c>
@@ -4731,11 +4781,8 @@
       <c r="E161">
         <v>17400</v>
       </c>
-      <c r="F161">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5105101001</v>
       </c>
@@ -4745,11 +4792,8 @@
       <c r="E162">
         <v>3000</v>
       </c>
-      <c r="F162">
-        <v>136681.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5105109000</v>
       </c>
@@ -4759,11 +4803,8 @@
       <c r="E163">
         <v>29973</v>
       </c>
-      <c r="F163">
-        <v>46020</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5105120000</v>
       </c>
@@ -4773,11 +4814,8 @@
       <c r="E164">
         <v>14507686.970000001</v>
       </c>
-      <c r="F164">
-        <v>12967014.09</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5105104001</v>
       </c>
@@ -4787,41 +4825,29 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>136</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E167">
         <v>14558059.970000001</v>
       </c>
-      <c r="F167">
-        <v>13179715.59</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>2</v>
       </c>
       <c r="E169" t="s">
         <v>71</v>
       </c>
-      <c r="F169" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5107101000</v>
       </c>
@@ -4831,11 +4857,8 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170">
-        <v>2170969</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5107102000</v>
       </c>
@@ -4845,11 +4868,8 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171">
-        <v>30651920</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5107103000</v>
       </c>
@@ -4859,11 +4879,8 @@
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="F172">
-        <v>755763</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5107103001</v>
       </c>
@@ -4873,11 +4890,8 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173">
-        <v>128803</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5107104000</v>
       </c>
@@ -4887,11 +4901,8 @@
       <c r="E174">
         <v>0</v>
       </c>
-      <c r="F174">
-        <v>9763052</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5107104001</v>
       </c>
@@ -4901,11 +4912,8 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175">
-        <v>3517244</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5107105000</v>
       </c>
@@ -4915,11 +4923,8 @@
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176">
-        <v>625517.13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5107106000</v>
       </c>
@@ -4929,11 +4934,8 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177">
-        <v>650128</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5107107000</v>
       </c>
@@ -4943,11 +4945,8 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5107108000</v>
       </c>
@@ -4957,22 +4956,16 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
-        <v>6620180</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="E180" t="s">
         <v>71</v>
       </c>
-      <c r="F180" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>147</v>
       </c>
@@ -4980,18 +4973,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>149</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182">
-        <v>54883576.130000003</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>28</v>
       </c>
@@ -4999,18 +4989,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>71</v>
       </c>
-      <c r="F185" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5107202000</v>
       </c>
@@ -5020,11 +5007,8 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186">
-        <v>25619466</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>152</v>
       </c>
@@ -5032,67 +5016,52 @@
         <v>51800000</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5107108000</v>
       </c>
       <c r="D188" t="s">
         <v>146</v>
       </c>
-      <c r="F188">
-        <v>-6620180</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
         <v>153</v>
       </c>
       <c r="E189">
         <v>51800000</v>
       </c>
-      <c r="F189">
-        <v>18999286</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>50</v>
       </c>
       <c r="E190">
         <v>51800000</v>
       </c>
-      <c r="F190">
-        <v>73882862.129999995</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>2</v>
       </c>
       <c r="E194" t="s">
         <v>71</v>
       </c>
-      <c r="F194" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>2</v>
       </c>
       <c r="E195" t="s">
         <v>71</v>
       </c>
-      <c r="F195" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>155</v>
       </c>
@@ -5100,7 +5069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5106101000</v>
       </c>
@@ -5110,11 +5079,8 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197">
-        <v>878424.66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5106102000</v>
       </c>
@@ -5124,46 +5090,34 @@
       <c r="E198">
         <v>2799.01</v>
       </c>
-      <c r="F198">
-        <v>87916.19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>159</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E200">
         <v>2799.01</v>
       </c>
-      <c r="F200">
-        <v>966340.85000000009</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>2</v>
       </c>
       <c r="E203" t="s">
         <v>71</v>
       </c>
-      <c r="F203" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>161</v>
       </c>
@@ -5171,7 +5125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5105114001</v>
       </c>
@@ -5181,11 +5135,8 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5105117000</v>
       </c>
@@ -5195,11 +5146,8 @@
       <c r="E206">
         <v>2500</v>
       </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5105126003</v>
       </c>
@@ -5209,11 +5157,8 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5103103008</v>
       </c>
@@ -5223,11 +5168,8 @@
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="F208">
-        <v>168414.56</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5105113000</v>
       </c>
@@ -5237,11 +5179,8 @@
       <c r="E209">
         <v>16074.5</v>
       </c>
-      <c r="F209">
-        <v>9232</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5105123000</v>
       </c>
@@ -5251,11 +5190,8 @@
       <c r="E210">
         <v>18000</v>
       </c>
-      <c r="F210">
-        <v>38982</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5103104000</v>
       </c>
@@ -5265,11 +5201,8 @@
       <c r="E211">
         <v>446043.97</v>
       </c>
-      <c r="F211">
-        <v>238087.22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5105130000</v>
       </c>
@@ -5279,11 +5212,8 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5105130001</v>
       </c>
@@ -5293,22 +5223,16 @@
       <c r="E213">
         <v>124335</v>
       </c>
-      <c r="F213">
-        <v>77555</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>172</v>
       </c>
       <c r="E214">
         <v>124335</v>
       </c>
-      <c r="F214">
-        <v>77555</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5105108000</v>
       </c>
@@ -5318,11 +5242,8 @@
       <c r="E215">
         <v>0</v>
       </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5102106000</v>
       </c>
@@ -5332,22 +5253,16 @@
       <c r="E216">
         <v>91976.87</v>
       </c>
-      <c r="F216">
-        <v>57703.68</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>175</v>
       </c>
       <c r="E217">
         <v>91976.87</v>
       </c>
-      <c r="F217">
-        <v>57703.68</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5105119003</v>
       </c>
@@ -5357,11 +5272,8 @@
       <c r="E218">
         <v>0</v>
       </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5105119000</v>
       </c>
@@ -5371,22 +5283,16 @@
       <c r="E219">
         <v>3850</v>
       </c>
-      <c r="F219">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>178</v>
       </c>
       <c r="E220">
         <v>3850</v>
       </c>
-      <c r="F220">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5105126005</v>
       </c>
@@ -5396,11 +5302,8 @@
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5105126006</v>
       </c>
@@ -5410,11 +5313,8 @@
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4102105001</v>
       </c>
@@ -5424,22 +5324,16 @@
       <c r="E223">
         <v>0</v>
       </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
         <v>182</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5105104000</v>
       </c>
@@ -5449,11 +5343,8 @@
       <c r="E225">
         <v>84000</v>
       </c>
-      <c r="F225">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5105128000</v>
       </c>
@@ -5463,22 +5354,16 @@
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
         <v>185</v>
       </c>
       <c r="E227">
         <v>84000</v>
       </c>
-      <c r="F227">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5105125000</v>
       </c>
@@ -5488,11 +5373,8 @@
       <c r="E228">
         <v>10000</v>
       </c>
-      <c r="F228">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5105125001</v>
       </c>
@@ -5502,22 +5384,16 @@
       <c r="E229">
         <v>50000</v>
       </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>188</v>
       </c>
       <c r="E230">
         <v>60000</v>
       </c>
-      <c r="F230">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5105116000</v>
       </c>
@@ -5527,11 +5403,8 @@
       <c r="E231">
         <v>225750</v>
       </c>
-      <c r="F231">
-        <v>186500</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5105116001</v>
       </c>
@@ -5541,33 +5414,24 @@
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>191</v>
       </c>
       <c r="E233">
         <v>225750</v>
       </c>
-      <c r="F233">
-        <v>279520</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>192</v>
       </c>
       <c r="E234">
         <v>225750</v>
       </c>
-      <c r="F234">
-        <v>188750</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5105115000</v>
       </c>
@@ -5577,11 +5441,8 @@
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235">
-        <v>90770</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5105126002</v>
       </c>
@@ -5591,11 +5452,8 @@
       <c r="E236">
         <v>0</v>
       </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4102110003</v>
       </c>
@@ -5605,11 +5463,8 @@
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5105126000</v>
       </c>
@@ -5619,11 +5474,8 @@
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5105126001</v>
       </c>
@@ -5633,11 +5485,8 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239">
-        <v>256351.56</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5105126004</v>
       </c>
@@ -5647,11 +5496,8 @@
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4102110001</v>
       </c>
@@ -5661,11 +5507,8 @@
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4102110002</v>
       </c>
@@ -5675,22 +5518,16 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242">
-        <v>-255484.13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>201</v>
       </c>
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243">
-        <v>867.42999999999302</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5103103000</v>
       </c>
@@ -5700,11 +5537,8 @@
       <c r="E244">
         <v>214296</v>
       </c>
-      <c r="F244">
-        <v>46550</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5102104000</v>
       </c>
@@ -5714,11 +5548,8 @@
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5103103001</v>
       </c>
@@ -5728,11 +5559,8 @@
       <c r="E246">
         <v>1500</v>
       </c>
-      <c r="F246">
-        <v>6180</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5103103002</v>
       </c>
@@ -5742,11 +5570,8 @@
       <c r="E247">
         <v>0</v>
       </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5102102000</v>
       </c>
@@ -5756,11 +5581,8 @@
       <c r="E248">
         <v>320325.68</v>
       </c>
-      <c r="F248">
-        <v>66127</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5103103003</v>
       </c>
@@ -5770,11 +5592,8 @@
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5103104001</v>
       </c>
@@ -5784,11 +5603,8 @@
       <c r="E250">
         <v>99875</v>
       </c>
-      <c r="F250">
-        <v>64318</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5102101000</v>
       </c>
@@ -5798,22 +5614,16 @@
       <c r="E251">
         <v>125628.84</v>
       </c>
-      <c r="F251">
-        <v>200067.09</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>210</v>
       </c>
       <c r="E252">
         <v>547329.52</v>
       </c>
-      <c r="F252">
-        <v>337604.08999999997</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>211</v>
       </c>
@@ -5821,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5105124000</v>
       </c>
@@ -5831,11 +5641,8 @@
       <c r="E254">
         <v>0</v>
       </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5105117003</v>
       </c>
@@ -5845,11 +5652,8 @@
       <c r="E255">
         <v>0</v>
       </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5105113001</v>
       </c>
@@ -5859,11 +5663,8 @@
       <c r="E256">
         <v>22220.240000000002</v>
       </c>
-      <c r="F256">
-        <v>18113</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5105113002</v>
       </c>
@@ -5873,11 +5674,8 @@
       <c r="E257">
         <v>21343</v>
       </c>
-      <c r="F257">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5105117001</v>
       </c>
@@ -5887,11 +5685,8 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5105118000</v>
       </c>
@@ -5901,11 +5696,8 @@
       <c r="E259">
         <v>3300</v>
       </c>
-      <c r="F259">
-        <v>7960</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5105122000</v>
       </c>
@@ -5915,11 +5707,8 @@
       <c r="E260">
         <v>122887.67999999999</v>
       </c>
-      <c r="F260">
-        <v>220246</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5105132000</v>
       </c>
@@ -5929,11 +5718,8 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5105123002</v>
       </c>
@@ -5943,11 +5729,8 @@
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5105126999</v>
       </c>
@@ -5957,11 +5740,8 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263">
-        <v>11402</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5105120001</v>
       </c>
@@ -5971,33 +5751,24 @@
       <c r="E264">
         <v>16489.5</v>
       </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4102110006</v>
       </c>
       <c r="D265" t="s">
         <v>59</v>
       </c>
-      <c r="F265">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>5105126007</v>
       </c>
       <c r="D266" t="s">
         <v>60</v>
       </c>
-      <c r="F266">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5111102000</v>
       </c>
@@ -6008,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4103501000</v>
       </c>
@@ -6019,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>62</v>
       </c>
@@ -6027,40 +5798,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>223</v>
       </c>
       <c r="E270">
         <v>186240.41999999998</v>
       </c>
-      <c r="F270">
-        <v>259377.57</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>50</v>
       </c>
       <c r="E271">
         <v>2020396.28</v>
       </c>
-      <c r="F271">
-        <v>1657198.5499999998</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>2</v>
       </c>
       <c r="E273" t="s">
         <v>71</v>
       </c>
-      <c r="F273" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>224</v>
       </c>
@@ -6068,7 +5830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4102101000</v>
       </c>
@@ -6078,11 +5840,8 @@
       <c r="E275">
         <v>0</v>
       </c>
-      <c r="F275">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5110201000</v>
       </c>
@@ -6092,11 +5851,8 @@
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>5110101000</v>
       </c>
@@ -6106,11 +5862,8 @@
       <c r="E277">
         <v>53301597.924782164</v>
       </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>5110101001</v>
       </c>
@@ -6120,38 +5873,29 @@
       <c r="E278">
         <v>0</v>
       </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>50</v>
       </c>
       <c r="E279">
         <v>53301597.924782164</v>
       </c>
-      <c r="F279">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>2</v>
       </c>
       <c r="E282" t="s">
         <v>71</v>
       </c>
-      <c r="F282" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>231</v>
       </c>
@@ -6159,51 +5903,39 @@
         <v>232</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>233</v>
       </c>
       <c r="E284">
         <v>124310395.15782505</v>
       </c>
-      <c r="F284">
-        <v>114192287.87306717</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>234</v>
       </c>
       <c r="E285">
         <v>854082</v>
       </c>
-      <c r="F285">
-        <v>854082</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>235</v>
       </c>
       <c r="E286">
         <v>1000</v>
       </c>
-      <c r="F286">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>236</v>
       </c>
       <c r="E287">
         <v>145.54854821647695</v>
       </c>
-      <c r="F287">
-        <v>133.70178492588204</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>50</v>
       </c>
@@ -6239,12 +5971,2569 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4101102000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4101101000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>7065902.1299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4101104001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>118532545.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4101104002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>13435920.039999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4101104003</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>52299978.549999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4101104004</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>276864.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4101104007</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>92123504.829999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4101105013</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4101108001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>164598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4101103000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4101103001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4101104000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1505150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4102110007</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>62544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>278401105.41999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4101105000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1557492.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4101105001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>9347013.2400000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4101105002</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>21592605.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4101105003</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>139196.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4101105004</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4101105006</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4101106000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4101106001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4101106002</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4101105008</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>506262.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4101105009</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>33142665.760000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4101105011</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>564053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4101105012</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4101105014</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <v>759215.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4101105015</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4102105000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>49731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>1572999.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>320182672.80999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>320182672.80999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4101102001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>131572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4101104005</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>5427.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4101104006</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4101105007</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <v>74085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4101105005</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>155468.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4102105002</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>190838.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>660591.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4102103003</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4102103002</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55">
+        <v>19940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>680531.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>320863203.83999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61">
+        <v>275679690.83999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <v>45183513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4102106000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71">
+        <v>57702.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4102108000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4102108001</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4102110006</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5105126007</v>
+      </c>
+      <c r="D77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4104102000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4102110000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5111102000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4103501000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85">
+        <v>302593.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4102109000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4102110005</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4102102000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88">
+        <v>208089.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4102103000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89">
+        <v>59504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4102103001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4102119999</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>360296.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5105120008</v>
+      </c>
+      <c r="D98" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98">
+        <v>164656.92000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5105120007</v>
+      </c>
+      <c r="D99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5105120006</v>
+      </c>
+      <c r="D100" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100">
+        <v>78239.710000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5105120004</v>
+      </c>
+      <c r="D101" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101">
+        <v>256976.39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5105120005</v>
+      </c>
+      <c r="D102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <v>427790.47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5105120002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5105120003</v>
+      </c>
+      <c r="D104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104">
+        <v>7308576.7300000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5105119005</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105">
+        <v>6828718.1600000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107">
+        <v>15064958.380000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5103101003</v>
+      </c>
+      <c r="D108" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5103101000</v>
+      </c>
+      <c r="D109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109">
+        <v>10125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5103101004</v>
+      </c>
+      <c r="D110" t="s">
+        <v>89</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5103101002</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5103101001</v>
+      </c>
+      <c r="D112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112">
+        <v>111788.82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5105121000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113">
+        <v>2389421.8199999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114">
+        <v>2511335.6399999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5103103006</v>
+      </c>
+      <c r="D115" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5103103004</v>
+      </c>
+      <c r="D116" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116">
+        <v>21435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5103102001</v>
+      </c>
+      <c r="D117" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117">
+        <v>3704521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5103102000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>97</v>
+      </c>
+      <c r="E118">
+        <v>38607.199999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5103103007</v>
+      </c>
+      <c r="D119" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5103103005</v>
+      </c>
+      <c r="D120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5102105000</v>
+      </c>
+      <c r="D121" t="s">
+        <v>100</v>
+      </c>
+      <c r="E121">
+        <v>636197.89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5102103000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122">
+        <v>4473866.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123">
+        <v>8874627.7599999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5105107001</v>
+      </c>
+      <c r="D124" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5105107000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5105114000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126">
+        <v>705338.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>106</v>
+      </c>
+      <c r="E127">
+        <v>709838.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>27160760.579999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133">
+        <v>3516156.6500000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5102108000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134">
+        <v>1499457.79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5102109000</v>
+      </c>
+      <c r="D135" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135">
+        <v>2016698.86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>50</v>
+      </c>
+      <c r="E136">
+        <v>3516156.6500000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140">
+        <v>18699319.130000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5104204000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>115</v>
+      </c>
+      <c r="E141">
+        <v>1331327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5104205000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5104105000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5104106000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144">
+        <v>38590</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5104106001</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145">
+        <v>57190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5104202000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147">
+        <v>95780</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5104108000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148">
+        <v>168660</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5104108001</v>
+      </c>
+      <c r="D149" t="s">
+        <v>123</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5104108002</v>
+      </c>
+      <c r="D150" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150">
+        <v>126931</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5104108006</v>
+      </c>
+      <c r="D151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5104108005</v>
+      </c>
+      <c r="D152" t="s">
+        <v>126</v>
+      </c>
+      <c r="E152">
+        <v>499293.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153">
+        <v>794884.36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>20921310.490000002</v>
+      </c>
+      <c r="G154">
+        <v>328428074.67999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>129</v>
+      </c>
+      <c r="D160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>5105101000</v>
+      </c>
+      <c r="D161" t="s">
+        <v>131</v>
+      </c>
+      <c r="E161">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>5105101001</v>
+      </c>
+      <c r="D162" t="s">
+        <v>132</v>
+      </c>
+      <c r="E162">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>5105109000</v>
+      </c>
+      <c r="D163" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163">
+        <v>29973</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>5105120000</v>
+      </c>
+      <c r="D164" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164">
+        <v>14507686.970000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>5105104001</v>
+      </c>
+      <c r="D165" t="s">
+        <v>135</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>136</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>14558059.970000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>5107101000</v>
+      </c>
+      <c r="D170" t="s">
+        <v>137</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>5107102000</v>
+      </c>
+      <c r="D171" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>5107103000</v>
+      </c>
+      <c r="D172" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>5107103001</v>
+      </c>
+      <c r="D173" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>5107104000</v>
+      </c>
+      <c r="D174" t="s">
+        <v>141</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>5107104001</v>
+      </c>
+      <c r="D175" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>5107105000</v>
+      </c>
+      <c r="D176" t="s">
+        <v>143</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>5107106000</v>
+      </c>
+      <c r="D177" t="s">
+        <v>144</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>5107107000</v>
+      </c>
+      <c r="D178" t="s">
+        <v>145</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>5107108000</v>
+      </c>
+      <c r="D179" t="s">
+        <v>146</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>147</v>
+      </c>
+      <c r="D181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>5107202000</v>
+      </c>
+      <c r="D186" t="s">
+        <v>151</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>152</v>
+      </c>
+      <c r="E187">
+        <v>51800000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>5107108000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189">
+        <v>51800000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>50</v>
+      </c>
+      <c r="E190">
+        <v>51800000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>155</v>
+      </c>
+      <c r="D196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5106101000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>157</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5106102000</v>
+      </c>
+      <c r="D198" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198">
+        <v>2799.01</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>159</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>2799.01</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>161</v>
+      </c>
+      <c r="D204" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5105114001</v>
+      </c>
+      <c r="D205" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5105117000</v>
+      </c>
+      <c r="D206" t="s">
+        <v>164</v>
+      </c>
+      <c r="E206">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5105126003</v>
+      </c>
+      <c r="D207" t="s">
+        <v>165</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5103103008</v>
+      </c>
+      <c r="D208" t="s">
+        <v>166</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5105113000</v>
+      </c>
+      <c r="D209" t="s">
+        <v>167</v>
+      </c>
+      <c r="E209">
+        <v>16074.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5105123000</v>
+      </c>
+      <c r="D210" t="s">
+        <v>168</v>
+      </c>
+      <c r="E210">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5103104000</v>
+      </c>
+      <c r="D211" t="s">
+        <v>169</v>
+      </c>
+      <c r="E211">
+        <v>446043.97</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5105130000</v>
+      </c>
+      <c r="D212" t="s">
+        <v>170</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5105130001</v>
+      </c>
+      <c r="D213" t="s">
+        <v>171</v>
+      </c>
+      <c r="E213">
+        <v>124335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>172</v>
+      </c>
+      <c r="E214">
+        <v>124335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5105108000</v>
+      </c>
+      <c r="D215" t="s">
+        <v>173</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5102106000</v>
+      </c>
+      <c r="D216" t="s">
+        <v>174</v>
+      </c>
+      <c r="E216">
+        <v>91976.87</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>175</v>
+      </c>
+      <c r="E217">
+        <v>91976.87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5105119003</v>
+      </c>
+      <c r="D218" t="s">
+        <v>176</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5105119000</v>
+      </c>
+      <c r="D219" t="s">
+        <v>177</v>
+      </c>
+      <c r="E219">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>178</v>
+      </c>
+      <c r="E220">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5105126005</v>
+      </c>
+      <c r="D221" t="s">
+        <v>179</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5105126006</v>
+      </c>
+      <c r="D222" t="s">
+        <v>180</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4102105001</v>
+      </c>
+      <c r="D223" t="s">
+        <v>181</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>182</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5105104000</v>
+      </c>
+      <c r="D225" t="s">
+        <v>183</v>
+      </c>
+      <c r="E225">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5105128000</v>
+      </c>
+      <c r="D226" t="s">
+        <v>184</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>185</v>
+      </c>
+      <c r="E227">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5105125000</v>
+      </c>
+      <c r="D228" t="s">
+        <v>186</v>
+      </c>
+      <c r="E228">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>5105125001</v>
+      </c>
+      <c r="D229" t="s">
+        <v>187</v>
+      </c>
+      <c r="E229">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>188</v>
+      </c>
+      <c r="E230">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5105116000</v>
+      </c>
+      <c r="D231" t="s">
+        <v>189</v>
+      </c>
+      <c r="E231">
+        <v>225750</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5105116001</v>
+      </c>
+      <c r="D232" t="s">
+        <v>190</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>191</v>
+      </c>
+      <c r="E233">
+        <v>225750</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>192</v>
+      </c>
+      <c r="E234">
+        <v>225750</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5105115000</v>
+      </c>
+      <c r="D235" t="s">
+        <v>193</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5105126002</v>
+      </c>
+      <c r="D236" t="s">
+        <v>194</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4102110003</v>
+      </c>
+      <c r="D237" t="s">
+        <v>195</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>5105126000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>196</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5105126001</v>
+      </c>
+      <c r="D239" t="s">
+        <v>197</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5105126004</v>
+      </c>
+      <c r="D240" t="s">
+        <v>198</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4102110001</v>
+      </c>
+      <c r="D241" t="s">
+        <v>199</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4102110002</v>
+      </c>
+      <c r="D242" t="s">
+        <v>200</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>201</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>5103103000</v>
+      </c>
+      <c r="D244" t="s">
+        <v>202</v>
+      </c>
+      <c r="E244">
+        <v>214296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5102104000</v>
+      </c>
+      <c r="D245" t="s">
+        <v>203</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5103103001</v>
+      </c>
+      <c r="D246" t="s">
+        <v>204</v>
+      </c>
+      <c r="E246">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5103103002</v>
+      </c>
+      <c r="D247" t="s">
+        <v>205</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5102102000</v>
+      </c>
+      <c r="D248" t="s">
+        <v>206</v>
+      </c>
+      <c r="E248">
+        <v>320325.68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>5103103003</v>
+      </c>
+      <c r="D249" t="s">
+        <v>207</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>5103104001</v>
+      </c>
+      <c r="D250" t="s">
+        <v>208</v>
+      </c>
+      <c r="E250">
+        <v>99875</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>5102101000</v>
+      </c>
+      <c r="D251" t="s">
+        <v>209</v>
+      </c>
+      <c r="E251">
+        <v>125628.84</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>210</v>
+      </c>
+      <c r="E252">
+        <v>547329.52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>211</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5105124000</v>
+      </c>
+      <c r="D254" t="s">
+        <v>212</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5105117003</v>
+      </c>
+      <c r="D255" t="s">
+        <v>213</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5105113001</v>
+      </c>
+      <c r="D256" t="s">
+        <v>214</v>
+      </c>
+      <c r="E256">
+        <v>22220.240000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5105113002</v>
+      </c>
+      <c r="D257" t="s">
+        <v>215</v>
+      </c>
+      <c r="E257">
+        <v>21343</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5105117001</v>
+      </c>
+      <c r="D258" t="s">
+        <v>216</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>5105118000</v>
+      </c>
+      <c r="D259" t="s">
+        <v>217</v>
+      </c>
+      <c r="E259">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5105122000</v>
+      </c>
+      <c r="D260" t="s">
+        <v>218</v>
+      </c>
+      <c r="E260">
+        <v>122887.67999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5105132000</v>
+      </c>
+      <c r="D261" t="s">
+        <v>219</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5105123002</v>
+      </c>
+      <c r="D262" t="s">
+        <v>220</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5105126999</v>
+      </c>
+      <c r="D263" t="s">
+        <v>221</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5105120001</v>
+      </c>
+      <c r="D264" t="s">
+        <v>222</v>
+      </c>
+      <c r="E264">
+        <v>16489.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>4102110006</v>
+      </c>
+      <c r="D265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5105126007</v>
+      </c>
+      <c r="D266" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5111102000</v>
+      </c>
+      <c r="D267" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>4103501000</v>
+      </c>
+      <c r="D268" t="s">
+        <v>63</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>223</v>
+      </c>
+      <c r="E270">
+        <v>186240.41999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>50</v>
+      </c>
+      <c r="E271">
+        <v>2020396.28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>224</v>
+      </c>
+      <c r="D274" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>4102101000</v>
+      </c>
+      <c r="D275" t="s">
+        <v>226</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5110201000</v>
+      </c>
+      <c r="D276" t="s">
+        <v>227</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5110101000</v>
+      </c>
+      <c r="D277" t="s">
+        <v>228</v>
+      </c>
+      <c r="E277">
+        <v>53301597.924782164</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>5110101001</v>
+      </c>
+      <c r="D278" t="s">
+        <v>229</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>50</v>
+      </c>
+      <c r="E279">
+        <v>53301597.924782164</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>231</v>
+      </c>
+      <c r="D283" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>233</v>
+      </c>
+      <c r="E284">
+        <v>124310395.15782505</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>234</v>
+      </c>
+      <c r="E285">
+        <v>854082</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>235</v>
+      </c>
+      <c r="E286">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>236</v>
+      </c>
+      <c r="E287">
+        <v>145.54854821647695</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>237</v>
+      </c>
+      <c r="E289">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>238</v>
+      </c>
+      <c r="E290">
+        <v>124.31039515782506</v>
+      </c>
+    </row>
+    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>239</v>
+      </c>
+      <c r="E291">
+        <v>0.18806413790896379</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>